--- a/biology/Médecine/Auscultation_pulmonaire/Auscultation_pulmonaire.xlsx
+++ b/biology/Médecine/Auscultation_pulmonaire/Auscultation_pulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auscultation pulmonaire en médecine fait partie de l'examen clinique pulmonaire.
-Faite à l'aide d'un stéthoscope, elle permet de détecter les bruits respiratoires (en) qui comprennent les bruits respiratoires normaux (en anglais Normal Breath Sounds) et les bruits respiratoires bronchiques (Bronchial Breath Sounds) qui correspondant, dans l'ancienne nomenclature de l'auscultation pulmonaire au murmure vésiculaire (bruit normal de la respiration)[1].
+Faite à l'aide d'un stéthoscope, elle permet de détecter les bruits respiratoires (en) qui comprennent les bruits respiratoires normaux (en anglais Normal Breath Sounds) et les bruits respiratoires bronchiques (Bronchial Breath Sounds) qui correspondant, dans l'ancienne nomenclature de l'auscultation pulmonaire au murmure vésiculaire (bruit normal de la respiration).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Idéalement, elle est faite le patient torse nu et en position assise. Elle concerne les faces arrière du thorax (dont les bases à la partie basse), les faces latérales et antérieures du thorax.
 L'auscultation doit être comparative sur les deux côtés. Elle peut être faite en respiration spontanée ou en respiration forcée (en demandant au patient de respirer amplement).
@@ -544,7 +558,9 @@
           <t>Bruits normaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le murmure vésiculaire est audible sur l'ensemble du thorax. Il s'agit d'un bruit bronchovésiculaire.
 Il peut exister des bruits trachéobronchiques au niveau du sternum et des bruits trachéiques au niveau de la trachée.
@@ -576,7 +592,9 @@
           <t>Bruits anormaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Laennec, en 1819, utilise le mot râle pour désigner tous les bruits adventices. Ensuite, il classifie ces râles en trois catégories: les râles sonores (ou ronflements), les râles sibilants (ou sifflements) et les râles muqueux (ou gargouillements). Or, à cette époque, dans le langage populaire, le mot râle signifiait le « bruit de la mort ». De peur d'effrayer les malades, il décide d'utiliser la traduction latine de râle, c'est-à-dire « rhonchus ». En anglais, il fut traduit plus tard par le mot « wheeze ». En 1957, A. John Robertson publia un article dans The Lancet où il classait les bruits adventices en continus et discontinus.
 À la suite de nombreuses traductions imparfaites, la terminologie proposée par Laënnec est devenue confuse et source de désaccords selon les langues des différents pays. Un consensus francophone sur la nomenclature de l'auscultation pulmonaire est attendu par plusieurs scientifiques.
